--- a/src/test/resources/exceldata/ExcelDownloadTestOK.xlsx
+++ b/src/test/resources/exceldata/ExcelDownloadTestOK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/luca_ciccarelli_accenture_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristopher.moccia\Desktop\pagopa\pn-paper-channel\src\test\resources\exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_5F46444EC68EF03A65B88013B6BA51676A7C92C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1347947B-BD0D-479A-A30B-7E7604765A15}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BE5B79-E94F-4EB1-9D95-7CD057BE2103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2835" yWindow="1365" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
   <si>
     <t>DENOMINATION</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>1.22</t>
+  </si>
+  <si>
+    <t>1.24</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>2.38</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -245,426 +254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,7 +571,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,439 +635,439 @@
       <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="23" t="s">
+      <c r="G2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="26" t="s">
+      <c r="K2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="28" t="s">
-        <v>21</v>
+      <c r="N2" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="34" t="s">
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="40" t="s">
+      <c r="K3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="42" t="s">
-        <v>23</v>
+      <c r="N3" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="44" t="s">
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="48" t="s">
+      <c r="C4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="51" t="s">
+      <c r="G4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="L4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="56" t="s">
-        <v>23</v>
+      <c r="N4" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="65" t="s">
+      <c r="G5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="69" t="s">
+      <c r="M5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="72" t="s">
+      <c r="A6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="76" t="s">
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="79" t="s">
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="81" t="s">
+      <c r="J6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="82" t="s">
+      <c r="L6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="84" t="s">
+      <c r="N6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="86" t="s">
+      <c r="A7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="90" t="s">
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="91" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="93" t="s">
+      <c r="G7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="94" t="s">
+      <c r="J7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="96" t="s">
+      <c r="K7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="97" t="s">
+      <c r="M7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="98" t="s">
+      <c r="N7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="100" t="s">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="101" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="104" t="s">
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="105" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="107" t="s">
+      <c r="G8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="109" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="110" t="s">
+      <c r="K8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="111" t="s">
+      <c r="M8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="112" t="s">
+      <c r="N8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="114" t="s">
+      <c r="A9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="117" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="118" t="s">
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="120" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="121" t="s">
+      <c r="G9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="122" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="123" t="s">
+      <c r="J9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="124" t="s">
+      <c r="L9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="125" t="s">
+      <c r="M9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="126" t="s">
+      <c r="N9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="128" t="s">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="130" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="132" t="s">
+      <c r="C10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="134" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="135" t="s">
+      <c r="G10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="136" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="137" t="s">
+      <c r="J10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="138" t="s">
+      <c r="L10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="139" t="s">
+      <c r="M10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="140" t="s">
+      <c r="N10" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="142" t="s">
+      <c r="A11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="143" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="146" t="s">
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="147" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="148" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="149" t="s">
+      <c r="G11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="150" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="151" t="s">
+      <c r="J11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="152" t="s">
+      <c r="L11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="153" t="s">
+      <c r="M11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="154" t="s">
+      <c r="N11" s="15" t="s">
         <v>21</v>
       </c>
     </row>
